--- a/data/allocation_data.xlsx
+++ b/data/allocation_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wushishi/Python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F94FB13-E644-BA45-A423-5B8CCAB4ED49}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C1BD0DF3-5A1B-3646-BFF1-7465822E99D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
   <si>
     <t>V1.0</t>
   </si>
@@ -525,10 +525,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>{'Content-Type':'application/x-www-form-urlencoded','charset': 'UTF-8'}</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>get</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -558,10 +554,6 @@
   </si>
   <si>
     <t>create_allocation_bill</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>get__allocation_bill_detail</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -610,6 +602,14 @@
   </si>
   <si>
     <t>/occ-stock/stock/allocation-bill/approveWithoutBpm</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>/occ-stock/stock/allocation-bill/findByParentid</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_allocation_bill_detail</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1484,9 +1484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1687,10 +1687,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="26" t="s">
         <v>22</v>
@@ -1705,7 +1705,7 @@
         <v>33</v>
       </c>
       <c r="H3" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="28" t="s">
         <v>26</v>
@@ -1714,7 +1714,7 @@
         <v>200</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3" s="38" t="s">
         <v>20</v>
@@ -1973,25 +1973,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>36</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>37</v>
       </c>
       <c r="G4" s="26" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I4" s="28" t="s">
         <v>26</v>
@@ -2000,16 +1998,16 @@
         <v>200</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L4" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="O4" s="39"/>
       <c r="P4" s="13"/>
@@ -2258,13 +2256,13 @@
     </row>
     <row r="5" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A5" s="24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="26" t="s">
         <v>22</v>
@@ -2273,13 +2271,13 @@
         <v>28</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="26" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I5" s="28" t="s">
         <v>26</v>
@@ -2288,16 +2286,16 @@
         <v>200</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L5" s="38" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O5" s="39"/>
       <c r="P5" s="13"/>
@@ -2546,19 +2544,19 @@
     </row>
     <row r="6" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A6" s="24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>19</v>
@@ -2567,7 +2565,7 @@
         <v>34</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I6" s="28" t="s">
         <v>26</v>
@@ -2582,7 +2580,7 @@
         <v>20</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N6" s="38" t="s">
         <v>32</v>
@@ -2834,19 +2832,19 @@
     </row>
     <row r="7" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A7" s="24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>19</v>
@@ -2855,7 +2853,7 @@
         <v>34</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>26</v>
@@ -2870,7 +2868,7 @@
         <v>20</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" s="38" t="s">
         <v>32</v>
@@ -6243,7 +6241,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="14">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -6274,7 +6272,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" spans="1:5" ht="14">
+    <row r="7" spans="1:5">
       <c r="A7" s="48"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
@@ -6328,7 +6326,7 @@
       <c r="D12" s="45"/>
       <c r="E12" s="46"/>
     </row>
-    <row r="13" spans="1:5" ht="14">
+    <row r="13" spans="1:5">
       <c r="A13" s="48"/>
       <c r="B13" s="8" t="s">
         <v>6</v>

--- a/data/allocation_data.xlsx
+++ b/data/allocation_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wushishi/Python/AutoTest/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C1BD0DF3-5A1B-3646-BFF1-7465822E99D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFF0573-E8AA-0747-AD27-9BCA672DA951}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>V1.0</t>
   </si>
@@ -610,6 +610,14 @@
   </si>
   <si>
     <t>get_allocation_bill_detail</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_allocation_bill，submit_allocation_bill</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"create_allocation_bill":[{"billId":"id"]}</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1486,7 +1494,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -2868,10 +2876,10 @@
         <v>20</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="13"/>
@@ -6241,7 +6249,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="14">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -6272,7 +6280,7 @@
       <c r="D6" s="45"/>
       <c r="E6" s="46"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="14">
       <c r="A7" s="48"/>
       <c r="B7" s="8" t="s">
         <v>6</v>
@@ -6326,7 +6334,7 @@
       <c r="D12" s="45"/>
       <c r="E12" s="46"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="14">
       <c r="A13" s="48"/>
       <c r="B13" s="8" t="s">
         <v>6</v>

--- a/data/allocation_data.xlsx
+++ b/data/allocation_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/python/AutoTest/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFF0573-E8AA-0747-AD27-9BCA672DA951}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D520B4B-FE20-2A40-8FC6-1CC7ABBED1B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>V1.0</t>
   </si>
@@ -618,6 +618,14 @@
   </si>
   <si>
     <t>{"create_allocation_bill":[{"billId":"id"]}</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sql</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>update stock_transfer_bill set 'STATE'= 1</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1490,11 +1498,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IX243"/>
+  <dimension ref="A1:IY243"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="50" customHeight="1"/>
@@ -1508,12 +1516,12 @@
     <col min="8" max="9" width="32.1640625" style="20" customWidth="1"/>
     <col min="10" max="10" width="32.1640625" style="32" customWidth="1"/>
     <col min="11" max="13" width="32.1640625" style="16" customWidth="1"/>
-    <col min="14" max="15" width="32.1640625" style="20" customWidth="1"/>
-    <col min="16" max="16381" width="9.1640625" style="15"/>
-    <col min="16382" max="16384" width="9.1640625" style="15" customWidth="1"/>
+    <col min="14" max="16" width="32.1640625" style="20" customWidth="1"/>
+    <col min="17" max="16382" width="9.1640625" style="15"/>
+    <col min="16383" max="16384" width="9.1640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="90.75" customHeight="1" thickBot="1">
+    <row r="1" spans="1:259" ht="90.75" customHeight="1" thickBot="1">
       <c r="A1" s="30"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1529,7 +1537,7 @@
       <c r="M1" s="40"/>
       <c r="N1" s="40"/>
       <c r="O1" s="40"/>
-      <c r="P1" s="13"/>
+      <c r="P1" s="40"/>
       <c r="Q1" s="13"/>
       <c r="R1" s="13"/>
       <c r="S1" s="13"/>
@@ -1581,8 +1589,9 @@
       <c r="BM1" s="13"/>
       <c r="BN1" s="13"/>
       <c r="BO1" s="13"/>
-    </row>
-    <row r="2" spans="1:258" s="11" customFormat="1" ht="17" thickBot="1">
+      <c r="BP1" s="13"/>
+    </row>
+    <row r="2" spans="1:259" s="11" customFormat="1" ht="17" thickBot="1">
       <c r="A2" s="21" t="s">
         <v>13</v>
       </c>
@@ -1626,9 +1635,11 @@
         <v>30</v>
       </c>
       <c r="O2" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
@@ -1689,8 +1700,9 @@
       <c r="BV2" s="18"/>
       <c r="BW2" s="18"/>
       <c r="BX2" s="18"/>
-    </row>
-    <row r="3" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="BY2" s="18"/>
+    </row>
+    <row r="3" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A3" s="24">
         <v>1</v>
       </c>
@@ -1729,10 +1741,10 @@
       </c>
       <c r="M3" s="38"/>
       <c r="N3" s="39"/>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="39"/>
+      <c r="P3" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -1784,7 +1796,7 @@
       <c r="BM3" s="13"/>
       <c r="BN3" s="13"/>
       <c r="BO3" s="13"/>
-      <c r="BP3" s="15"/>
+      <c r="BP3" s="13"/>
       <c r="BQ3" s="15"/>
       <c r="BR3" s="15"/>
       <c r="BS3" s="15"/>
@@ -1975,8 +1987,9 @@
       <c r="IV3" s="15"/>
       <c r="IW3" s="15"/>
       <c r="IX3" s="15"/>
-    </row>
-    <row r="4" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IY3" s="15"/>
+    </row>
+    <row r="4" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A4" s="24">
         <v>2</v>
       </c>
@@ -2017,8 +2030,8 @@
       <c r="N4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="39"/>
-      <c r="P4" s="13"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="39"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
@@ -2070,7 +2083,7 @@
       <c r="BM4" s="13"/>
       <c r="BN4" s="13"/>
       <c r="BO4" s="13"/>
-      <c r="BP4" s="15"/>
+      <c r="BP4" s="13"/>
       <c r="BQ4" s="15"/>
       <c r="BR4" s="15"/>
       <c r="BS4" s="15"/>
@@ -2261,8 +2274,9 @@
       <c r="IV4" s="15"/>
       <c r="IW4" s="15"/>
       <c r="IX4" s="15"/>
-    </row>
-    <row r="5" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IY4" s="15"/>
+    </row>
+    <row r="5" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A5" s="24">
         <v>3</v>
       </c>
@@ -2305,8 +2319,8 @@
       <c r="N5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="39"/>
-      <c r="P5" s="13"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39"/>
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -2358,7 +2372,7 @@
       <c r="BM5" s="13"/>
       <c r="BN5" s="13"/>
       <c r="BO5" s="13"/>
-      <c r="BP5" s="15"/>
+      <c r="BP5" s="13"/>
       <c r="BQ5" s="15"/>
       <c r="BR5" s="15"/>
       <c r="BS5" s="15"/>
@@ -2549,8 +2563,9 @@
       <c r="IV5" s="15"/>
       <c r="IW5" s="15"/>
       <c r="IX5" s="15"/>
-    </row>
-    <row r="6" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IY5" s="15"/>
+    </row>
+    <row r="6" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A6" s="24">
         <v>4</v>
       </c>
@@ -2593,8 +2608,8 @@
       <c r="N6" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="13"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
@@ -2646,7 +2661,7 @@
       <c r="BM6" s="13"/>
       <c r="BN6" s="13"/>
       <c r="BO6" s="13"/>
-      <c r="BP6" s="15"/>
+      <c r="BP6" s="13"/>
       <c r="BQ6" s="15"/>
       <c r="BR6" s="15"/>
       <c r="BS6" s="15"/>
@@ -2837,8 +2852,9 @@
       <c r="IV6" s="15"/>
       <c r="IW6" s="15"/>
       <c r="IX6" s="15"/>
-    </row>
-    <row r="7" spans="1:258" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
+      <c r="IY6" s="15"/>
+    </row>
+    <row r="7" spans="1:259" s="12" customFormat="1" ht="163" customHeight="1" thickBot="1">
       <c r="A7" s="24">
         <v>5</v>
       </c>
@@ -2881,8 +2897,10 @@
       <c r="N7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="13"/>
+      <c r="O7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="39"/>
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
@@ -2934,7 +2952,7 @@
       <c r="BM7" s="13"/>
       <c r="BN7" s="13"/>
       <c r="BO7" s="13"/>
-      <c r="BP7" s="15"/>
+      <c r="BP7" s="13"/>
       <c r="BQ7" s="15"/>
       <c r="BR7" s="15"/>
       <c r="BS7" s="15"/>
@@ -3125,8 +3143,9 @@
       <c r="IV7" s="15"/>
       <c r="IW7" s="15"/>
       <c r="IX7" s="15"/>
-    </row>
-    <row r="8" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="IY7" s="15"/>
+    </row>
+    <row r="8" spans="1:259" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A8" s="22"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
@@ -3138,8 +3157,9 @@
       <c r="M8" s="22"/>
       <c r="N8" s="23"/>
       <c r="O8" s="23"/>
-    </row>
-    <row r="9" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:259" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A9" s="22"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
@@ -3151,8 +3171,9 @@
       <c r="M9" s="22"/>
       <c r="N9" s="23"/>
       <c r="O9" s="23"/>
-    </row>
-    <row r="10" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P9" s="23"/>
+    </row>
+    <row r="10" spans="1:259" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -3164,8 +3185,9 @@
       <c r="M10" s="22"/>
       <c r="N10" s="23"/>
       <c r="O10" s="23"/>
-    </row>
-    <row r="11" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="1:259" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A11" s="22"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
@@ -3177,8 +3199,9 @@
       <c r="M11" s="22"/>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
-    </row>
-    <row r="12" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P11" s="23"/>
+    </row>
+    <row r="12" spans="1:259" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A12" s="22"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
@@ -3190,8 +3213,9 @@
       <c r="M12" s="22"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
-    </row>
-    <row r="13" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:259" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A13" s="22"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
@@ -3203,8 +3227,9 @@
       <c r="M13" s="22"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
-    </row>
-    <row r="14" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" spans="1:259" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A14" s="22"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
@@ -3216,8 +3241,9 @@
       <c r="M14" s="22"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
-    </row>
-    <row r="15" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P14" s="23"/>
+    </row>
+    <row r="15" spans="1:259" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A15" s="22"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
@@ -3229,8 +3255,9 @@
       <c r="M15" s="22"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
-    </row>
-    <row r="16" spans="1:258" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="1:259" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A16" s="22"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
@@ -3242,8 +3269,9 @@
       <c r="M16" s="22"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
-    </row>
-    <row r="17" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A17" s="22"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
@@ -3255,8 +3283,9 @@
       <c r="M17" s="22"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
-    </row>
-    <row r="18" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -3268,8 +3297,9 @@
       <c r="M18" s="22"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
-    </row>
-    <row r="19" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
@@ -3281,8 +3311,9 @@
       <c r="M19" s="22"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
-    </row>
-    <row r="20" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P19" s="23"/>
+    </row>
+    <row r="20" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A20" s="22"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -3294,8 +3325,9 @@
       <c r="M20" s="22"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
-    </row>
-    <row r="21" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A21" s="22"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
@@ -3307,8 +3339,9 @@
       <c r="M21" s="22"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
-    </row>
-    <row r="22" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P21" s="23"/>
+    </row>
+    <row r="22" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A22" s="22"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
@@ -3320,8 +3353,9 @@
       <c r="M22" s="22"/>
       <c r="N22" s="23"/>
       <c r="O22" s="23"/>
-    </row>
-    <row r="23" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P22" s="23"/>
+    </row>
+    <row r="23" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A23" s="22"/>
       <c r="E23" s="22"/>
       <c r="F23" s="22"/>
@@ -3333,8 +3367,9 @@
       <c r="M23" s="22"/>
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
-    </row>
-    <row r="24" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P23" s="23"/>
+    </row>
+    <row r="24" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
@@ -3346,8 +3381,9 @@
       <c r="M24" s="22"/>
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
-    </row>
-    <row r="25" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P24" s="23"/>
+    </row>
+    <row r="25" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
@@ -3359,8 +3395,9 @@
       <c r="M25" s="22"/>
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
-    </row>
-    <row r="26" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P25" s="23"/>
+    </row>
+    <row r="26" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A26" s="22"/>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
@@ -3372,8 +3409,9 @@
       <c r="M26" s="22"/>
       <c r="N26" s="23"/>
       <c r="O26" s="23"/>
-    </row>
-    <row r="27" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P26" s="23"/>
+    </row>
+    <row r="27" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A27" s="22"/>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
@@ -3385,8 +3423,9 @@
       <c r="M27" s="22"/>
       <c r="N27" s="23"/>
       <c r="O27" s="23"/>
-    </row>
-    <row r="28" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P27" s="23"/>
+    </row>
+    <row r="28" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A28" s="22"/>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -3398,8 +3437,9 @@
       <c r="M28" s="22"/>
       <c r="N28" s="23"/>
       <c r="O28" s="23"/>
-    </row>
-    <row r="29" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P28" s="23"/>
+    </row>
+    <row r="29" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A29" s="22"/>
       <c r="E29" s="22"/>
       <c r="F29" s="22"/>
@@ -3411,8 +3451,9 @@
       <c r="M29" s="22"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
-    </row>
-    <row r="30" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P29" s="23"/>
+    </row>
+    <row r="30" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A30" s="22"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -3424,8 +3465,9 @@
       <c r="M30" s="22"/>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
-    </row>
-    <row r="31" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P30" s="23"/>
+    </row>
+    <row r="31" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A31" s="22"/>
       <c r="E31" s="22"/>
       <c r="F31" s="22"/>
@@ -3437,8 +3479,9 @@
       <c r="M31" s="22"/>
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
-    </row>
-    <row r="32" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P31" s="23"/>
+    </row>
+    <row r="32" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="22"/>
@@ -3450,8 +3493,9 @@
       <c r="M32" s="22"/>
       <c r="N32" s="23"/>
       <c r="O32" s="23"/>
-    </row>
-    <row r="33" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P32" s="23"/>
+    </row>
+    <row r="33" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A33" s="22"/>
       <c r="E33" s="22"/>
       <c r="F33" s="22"/>
@@ -3463,8 +3507,9 @@
       <c r="M33" s="22"/>
       <c r="N33" s="23"/>
       <c r="O33" s="23"/>
-    </row>
-    <row r="34" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P33" s="23"/>
+    </row>
+    <row r="34" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A34" s="22"/>
       <c r="E34" s="22"/>
       <c r="F34" s="22"/>
@@ -3476,8 +3521,9 @@
       <c r="M34" s="22"/>
       <c r="N34" s="23"/>
       <c r="O34" s="23"/>
-    </row>
-    <row r="35" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P34" s="23"/>
+    </row>
+    <row r="35" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A35" s="22"/>
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
@@ -3489,8 +3535,9 @@
       <c r="M35" s="22"/>
       <c r="N35" s="23"/>
       <c r="O35" s="23"/>
-    </row>
-    <row r="36" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P35" s="23"/>
+    </row>
+    <row r="36" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A36" s="22"/>
       <c r="E36" s="22"/>
       <c r="F36" s="22"/>
@@ -3502,8 +3549,9 @@
       <c r="M36" s="22"/>
       <c r="N36" s="23"/>
       <c r="O36" s="23"/>
-    </row>
-    <row r="37" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P36" s="23"/>
+    </row>
+    <row r="37" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A37" s="22"/>
       <c r="E37" s="22"/>
       <c r="F37" s="22"/>
@@ -3515,8 +3563,9 @@
       <c r="M37" s="22"/>
       <c r="N37" s="23"/>
       <c r="O37" s="23"/>
-    </row>
-    <row r="38" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P37" s="23"/>
+    </row>
+    <row r="38" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A38" s="22"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
@@ -3528,8 +3577,9 @@
       <c r="M38" s="22"/>
       <c r="N38" s="23"/>
       <c r="O38" s="23"/>
-    </row>
-    <row r="39" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P38" s="23"/>
+    </row>
+    <row r="39" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A39" s="22"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22"/>
@@ -3541,8 +3591,9 @@
       <c r="M39" s="22"/>
       <c r="N39" s="23"/>
       <c r="O39" s="23"/>
-    </row>
-    <row r="40" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P39" s="23"/>
+    </row>
+    <row r="40" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A40" s="22"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -3554,8 +3605,9 @@
       <c r="M40" s="22"/>
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
-    </row>
-    <row r="41" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P40" s="23"/>
+    </row>
+    <row r="41" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A41" s="22"/>
       <c r="E41" s="22"/>
       <c r="F41" s="22"/>
@@ -3567,8 +3619,9 @@
       <c r="M41" s="22"/>
       <c r="N41" s="23"/>
       <c r="O41" s="23"/>
-    </row>
-    <row r="42" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P41" s="23"/>
+    </row>
+    <row r="42" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A42" s="22"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22"/>
@@ -3580,8 +3633,9 @@
       <c r="M42" s="22"/>
       <c r="N42" s="23"/>
       <c r="O42" s="23"/>
-    </row>
-    <row r="43" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P42" s="23"/>
+    </row>
+    <row r="43" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A43" s="22"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
@@ -3593,8 +3647,9 @@
       <c r="M43" s="22"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
-    </row>
-    <row r="44" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P43" s="23"/>
+    </row>
+    <row r="44" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A44" s="22"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -3606,8 +3661,9 @@
       <c r="M44" s="22"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
-    </row>
-    <row r="45" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P44" s="23"/>
+    </row>
+    <row r="45" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A45" s="22"/>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
@@ -3619,8 +3675,9 @@
       <c r="M45" s="22"/>
       <c r="N45" s="23"/>
       <c r="O45" s="23"/>
-    </row>
-    <row r="46" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P45" s="23"/>
+    </row>
+    <row r="46" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A46" s="22"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22"/>
@@ -3632,8 +3689,9 @@
       <c r="M46" s="22"/>
       <c r="N46" s="23"/>
       <c r="O46" s="23"/>
-    </row>
-    <row r="47" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P46" s="23"/>
+    </row>
+    <row r="47" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A47" s="22"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -3645,8 +3703,9 @@
       <c r="M47" s="22"/>
       <c r="N47" s="23"/>
       <c r="O47" s="23"/>
-    </row>
-    <row r="48" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P47" s="23"/>
+    </row>
+    <row r="48" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A48" s="22"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -3658,8 +3717,9 @@
       <c r="M48" s="22"/>
       <c r="N48" s="23"/>
       <c r="O48" s="23"/>
-    </row>
-    <row r="49" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P48" s="23"/>
+    </row>
+    <row r="49" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A49" s="22"/>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
@@ -3671,8 +3731,9 @@
       <c r="M49" s="22"/>
       <c r="N49" s="23"/>
       <c r="O49" s="23"/>
-    </row>
-    <row r="50" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P49" s="23"/>
+    </row>
+    <row r="50" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A50" s="22"/>
       <c r="E50" s="22"/>
       <c r="F50" s="22"/>
@@ -3684,8 +3745,9 @@
       <c r="M50" s="22"/>
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
-    </row>
-    <row r="51" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P50" s="23"/>
+    </row>
+    <row r="51" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A51" s="22"/>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
@@ -3697,8 +3759,9 @@
       <c r="M51" s="22"/>
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
-    </row>
-    <row r="52" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P51" s="23"/>
+    </row>
+    <row r="52" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A52" s="22"/>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -3710,8 +3773,9 @@
       <c r="M52" s="22"/>
       <c r="N52" s="23"/>
       <c r="O52" s="23"/>
-    </row>
-    <row r="53" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P52" s="23"/>
+    </row>
+    <row r="53" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A53" s="22"/>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
@@ -3723,8 +3787,9 @@
       <c r="M53" s="22"/>
       <c r="N53" s="23"/>
       <c r="O53" s="23"/>
-    </row>
-    <row r="54" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P53" s="23"/>
+    </row>
+    <row r="54" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A54" s="22"/>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -3736,8 +3801,9 @@
       <c r="M54" s="22"/>
       <c r="N54" s="23"/>
       <c r="O54" s="23"/>
-    </row>
-    <row r="55" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P54" s="23"/>
+    </row>
+    <row r="55" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A55" s="22"/>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
@@ -3749,8 +3815,9 @@
       <c r="M55" s="22"/>
       <c r="N55" s="23"/>
       <c r="O55" s="23"/>
-    </row>
-    <row r="56" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P55" s="23"/>
+    </row>
+    <row r="56" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A56" s="22"/>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -3762,8 +3829,9 @@
       <c r="M56" s="22"/>
       <c r="N56" s="23"/>
       <c r="O56" s="23"/>
-    </row>
-    <row r="57" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P56" s="23"/>
+    </row>
+    <row r="57" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A57" s="22"/>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
@@ -3775,8 +3843,9 @@
       <c r="M57" s="22"/>
       <c r="N57" s="23"/>
       <c r="O57" s="23"/>
-    </row>
-    <row r="58" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P57" s="23"/>
+    </row>
+    <row r="58" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A58" s="22"/>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -3788,8 +3857,9 @@
       <c r="M58" s="22"/>
       <c r="N58" s="23"/>
       <c r="O58" s="23"/>
-    </row>
-    <row r="59" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P58" s="23"/>
+    </row>
+    <row r="59" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A59" s="22"/>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
@@ -3801,8 +3871,9 @@
       <c r="M59" s="22"/>
       <c r="N59" s="23"/>
       <c r="O59" s="23"/>
-    </row>
-    <row r="60" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P59" s="23"/>
+    </row>
+    <row r="60" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A60" s="22"/>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -3814,8 +3885,9 @@
       <c r="M60" s="22"/>
       <c r="N60" s="23"/>
       <c r="O60" s="23"/>
-    </row>
-    <row r="61" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P60" s="23"/>
+    </row>
+    <row r="61" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A61" s="22"/>
       <c r="E61" s="22"/>
       <c r="F61" s="22"/>
@@ -3827,8 +3899,9 @@
       <c r="M61" s="22"/>
       <c r="N61" s="23"/>
       <c r="O61" s="23"/>
-    </row>
-    <row r="62" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P61" s="23"/>
+    </row>
+    <row r="62" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A62" s="22"/>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -3840,8 +3913,9 @@
       <c r="M62" s="22"/>
       <c r="N62" s="23"/>
       <c r="O62" s="23"/>
-    </row>
-    <row r="63" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P62" s="23"/>
+    </row>
+    <row r="63" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A63" s="22"/>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
@@ -3853,8 +3927,9 @@
       <c r="M63" s="22"/>
       <c r="N63" s="23"/>
       <c r="O63" s="23"/>
-    </row>
-    <row r="64" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P63" s="23"/>
+    </row>
+    <row r="64" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A64" s="22"/>
       <c r="E64" s="22"/>
       <c r="F64" s="22"/>
@@ -3866,8 +3941,9 @@
       <c r="M64" s="22"/>
       <c r="N64" s="23"/>
       <c r="O64" s="23"/>
-    </row>
-    <row r="65" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P64" s="23"/>
+    </row>
+    <row r="65" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A65" s="22"/>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
@@ -3879,8 +3955,9 @@
       <c r="M65" s="22"/>
       <c r="N65" s="23"/>
       <c r="O65" s="23"/>
-    </row>
-    <row r="66" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P65" s="23"/>
+    </row>
+    <row r="66" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A66" s="22"/>
       <c r="E66" s="22"/>
       <c r="F66" s="22"/>
@@ -3892,8 +3969,9 @@
       <c r="M66" s="22"/>
       <c r="N66" s="23"/>
       <c r="O66" s="23"/>
-    </row>
-    <row r="67" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P66" s="23"/>
+    </row>
+    <row r="67" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A67" s="22"/>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
@@ -3905,8 +3983,9 @@
       <c r="M67" s="22"/>
       <c r="N67" s="23"/>
       <c r="O67" s="23"/>
-    </row>
-    <row r="68" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P67" s="23"/>
+    </row>
+    <row r="68" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A68" s="22"/>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
@@ -3918,8 +3997,9 @@
       <c r="M68" s="22"/>
       <c r="N68" s="23"/>
       <c r="O68" s="23"/>
-    </row>
-    <row r="69" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P68" s="23"/>
+    </row>
+    <row r="69" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A69" s="22"/>
       <c r="E69" s="22"/>
       <c r="F69" s="22"/>
@@ -3931,8 +4011,9 @@
       <c r="M69" s="22"/>
       <c r="N69" s="23"/>
       <c r="O69" s="23"/>
-    </row>
-    <row r="70" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P69" s="23"/>
+    </row>
+    <row r="70" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A70" s="22"/>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
@@ -3944,8 +4025,9 @@
       <c r="M70" s="22"/>
       <c r="N70" s="23"/>
       <c r="O70" s="23"/>
-    </row>
-    <row r="71" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P70" s="23"/>
+    </row>
+    <row r="71" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A71" s="22"/>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
@@ -3957,8 +4039,9 @@
       <c r="M71" s="22"/>
       <c r="N71" s="23"/>
       <c r="O71" s="23"/>
-    </row>
-    <row r="72" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P71" s="23"/>
+    </row>
+    <row r="72" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A72" s="22"/>
       <c r="E72" s="22"/>
       <c r="F72" s="22"/>
@@ -3970,8 +4053,9 @@
       <c r="M72" s="22"/>
       <c r="N72" s="23"/>
       <c r="O72" s="23"/>
-    </row>
-    <row r="73" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P72" s="23"/>
+    </row>
+    <row r="73" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A73" s="22"/>
       <c r="E73" s="22"/>
       <c r="F73" s="22"/>
@@ -3983,8 +4067,9 @@
       <c r="M73" s="22"/>
       <c r="N73" s="23"/>
       <c r="O73" s="23"/>
-    </row>
-    <row r="74" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P73" s="23"/>
+    </row>
+    <row r="74" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A74" s="22"/>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -3996,8 +4081,9 @@
       <c r="M74" s="22"/>
       <c r="N74" s="23"/>
       <c r="O74" s="23"/>
-    </row>
-    <row r="75" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P74" s="23"/>
+    </row>
+    <row r="75" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A75" s="22"/>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
@@ -4009,8 +4095,9 @@
       <c r="M75" s="22"/>
       <c r="N75" s="23"/>
       <c r="O75" s="23"/>
-    </row>
-    <row r="76" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P75" s="23"/>
+    </row>
+    <row r="76" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A76" s="22"/>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
@@ -4022,8 +4109,9 @@
       <c r="M76" s="22"/>
       <c r="N76" s="23"/>
       <c r="O76" s="23"/>
-    </row>
-    <row r="77" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P76" s="23"/>
+    </row>
+    <row r="77" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A77" s="22"/>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
@@ -4035,8 +4123,9 @@
       <c r="M77" s="22"/>
       <c r="N77" s="23"/>
       <c r="O77" s="23"/>
-    </row>
-    <row r="78" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P77" s="23"/>
+    </row>
+    <row r="78" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A78" s="22"/>
       <c r="E78" s="22"/>
       <c r="F78" s="22"/>
@@ -4048,8 +4137,9 @@
       <c r="M78" s="22"/>
       <c r="N78" s="23"/>
       <c r="O78" s="23"/>
-    </row>
-    <row r="79" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P78" s="23"/>
+    </row>
+    <row r="79" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A79" s="22"/>
       <c r="E79" s="22"/>
       <c r="F79" s="22"/>
@@ -4061,8 +4151,9 @@
       <c r="M79" s="22"/>
       <c r="N79" s="23"/>
       <c r="O79" s="23"/>
-    </row>
-    <row r="80" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P79" s="23"/>
+    </row>
+    <row r="80" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A80" s="22"/>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -4074,8 +4165,9 @@
       <c r="M80" s="22"/>
       <c r="N80" s="23"/>
       <c r="O80" s="23"/>
-    </row>
-    <row r="81" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P80" s="23"/>
+    </row>
+    <row r="81" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A81" s="22"/>
       <c r="E81" s="22"/>
       <c r="F81" s="22"/>
@@ -4087,8 +4179,9 @@
       <c r="M81" s="22"/>
       <c r="N81" s="23"/>
       <c r="O81" s="23"/>
-    </row>
-    <row r="82" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P81" s="23"/>
+    </row>
+    <row r="82" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A82" s="22"/>
       <c r="E82" s="22"/>
       <c r="F82" s="22"/>
@@ -4100,8 +4193,9 @@
       <c r="M82" s="22"/>
       <c r="N82" s="23"/>
       <c r="O82" s="23"/>
-    </row>
-    <row r="83" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P82" s="23"/>
+    </row>
+    <row r="83" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A83" s="22"/>
       <c r="E83" s="22"/>
       <c r="F83" s="22"/>
@@ -4113,8 +4207,9 @@
       <c r="M83" s="22"/>
       <c r="N83" s="23"/>
       <c r="O83" s="23"/>
-    </row>
-    <row r="84" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P83" s="23"/>
+    </row>
+    <row r="84" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A84" s="22"/>
       <c r="E84" s="22"/>
       <c r="F84" s="22"/>
@@ -4126,8 +4221,9 @@
       <c r="M84" s="22"/>
       <c r="N84" s="23"/>
       <c r="O84" s="23"/>
-    </row>
-    <row r="85" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P84" s="23"/>
+    </row>
+    <row r="85" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A85" s="22"/>
       <c r="E85" s="22"/>
       <c r="F85" s="22"/>
@@ -4139,8 +4235,9 @@
       <c r="M85" s="22"/>
       <c r="N85" s="23"/>
       <c r="O85" s="23"/>
-    </row>
-    <row r="86" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P85" s="23"/>
+    </row>
+    <row r="86" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A86" s="22"/>
       <c r="E86" s="22"/>
       <c r="F86" s="22"/>
@@ -4152,8 +4249,9 @@
       <c r="M86" s="22"/>
       <c r="N86" s="23"/>
       <c r="O86" s="23"/>
-    </row>
-    <row r="87" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P86" s="23"/>
+    </row>
+    <row r="87" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A87" s="22"/>
       <c r="E87" s="22"/>
       <c r="F87" s="22"/>
@@ -4165,8 +4263,9 @@
       <c r="M87" s="22"/>
       <c r="N87" s="23"/>
       <c r="O87" s="23"/>
-    </row>
-    <row r="88" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P87" s="23"/>
+    </row>
+    <row r="88" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A88" s="22"/>
       <c r="E88" s="22"/>
       <c r="F88" s="22"/>
@@ -4178,8 +4277,9 @@
       <c r="M88" s="22"/>
       <c r="N88" s="23"/>
       <c r="O88" s="23"/>
-    </row>
-    <row r="89" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P88" s="23"/>
+    </row>
+    <row r="89" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A89" s="22"/>
       <c r="E89" s="22"/>
       <c r="F89" s="22"/>
@@ -4191,8 +4291,9 @@
       <c r="M89" s="22"/>
       <c r="N89" s="23"/>
       <c r="O89" s="23"/>
-    </row>
-    <row r="90" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P89" s="23"/>
+    </row>
+    <row r="90" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A90" s="22"/>
       <c r="E90" s="22"/>
       <c r="F90" s="22"/>
@@ -4204,8 +4305,9 @@
       <c r="M90" s="22"/>
       <c r="N90" s="23"/>
       <c r="O90" s="23"/>
-    </row>
-    <row r="91" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P90" s="23"/>
+    </row>
+    <row r="91" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A91" s="22"/>
       <c r="E91" s="22"/>
       <c r="F91" s="22"/>
@@ -4217,8 +4319,9 @@
       <c r="M91" s="22"/>
       <c r="N91" s="23"/>
       <c r="O91" s="23"/>
-    </row>
-    <row r="92" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P91" s="23"/>
+    </row>
+    <row r="92" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A92" s="22"/>
       <c r="E92" s="22"/>
       <c r="F92" s="22"/>
@@ -4230,8 +4333,9 @@
       <c r="M92" s="22"/>
       <c r="N92" s="23"/>
       <c r="O92" s="23"/>
-    </row>
-    <row r="93" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P92" s="23"/>
+    </row>
+    <row r="93" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A93" s="22"/>
       <c r="E93" s="22"/>
       <c r="F93" s="22"/>
@@ -4243,8 +4347,9 @@
       <c r="M93" s="22"/>
       <c r="N93" s="23"/>
       <c r="O93" s="23"/>
-    </row>
-    <row r="94" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P93" s="23"/>
+    </row>
+    <row r="94" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A94" s="22"/>
       <c r="E94" s="22"/>
       <c r="F94" s="22"/>
@@ -4256,8 +4361,9 @@
       <c r="M94" s="22"/>
       <c r="N94" s="23"/>
       <c r="O94" s="23"/>
-    </row>
-    <row r="95" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P94" s="23"/>
+    </row>
+    <row r="95" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A95" s="22"/>
       <c r="E95" s="22"/>
       <c r="F95" s="22"/>
@@ -4269,8 +4375,9 @@
       <c r="M95" s="22"/>
       <c r="N95" s="23"/>
       <c r="O95" s="23"/>
-    </row>
-    <row r="96" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P95" s="23"/>
+    </row>
+    <row r="96" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A96" s="22"/>
       <c r="E96" s="22"/>
       <c r="F96" s="22"/>
@@ -4282,8 +4389,9 @@
       <c r="M96" s="22"/>
       <c r="N96" s="23"/>
       <c r="O96" s="23"/>
-    </row>
-    <row r="97" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P96" s="23"/>
+    </row>
+    <row r="97" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A97" s="22"/>
       <c r="E97" s="22"/>
       <c r="F97" s="22"/>
@@ -4295,8 +4403,9 @@
       <c r="M97" s="22"/>
       <c r="N97" s="23"/>
       <c r="O97" s="23"/>
-    </row>
-    <row r="98" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P97" s="23"/>
+    </row>
+    <row r="98" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A98" s="22"/>
       <c r="E98" s="22"/>
       <c r="F98" s="22"/>
@@ -4308,8 +4417,9 @@
       <c r="M98" s="22"/>
       <c r="N98" s="23"/>
       <c r="O98" s="23"/>
-    </row>
-    <row r="99" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P98" s="23"/>
+    </row>
+    <row r="99" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A99" s="22"/>
       <c r="E99" s="22"/>
       <c r="F99" s="22"/>
@@ -4321,8 +4431,9 @@
       <c r="M99" s="22"/>
       <c r="N99" s="23"/>
       <c r="O99" s="23"/>
-    </row>
-    <row r="100" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P99" s="23"/>
+    </row>
+    <row r="100" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A100" s="22"/>
       <c r="E100" s="22"/>
       <c r="F100" s="22"/>
@@ -4334,8 +4445,9 @@
       <c r="M100" s="22"/>
       <c r="N100" s="23"/>
       <c r="O100" s="23"/>
-    </row>
-    <row r="101" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P100" s="23"/>
+    </row>
+    <row r="101" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A101" s="22"/>
       <c r="E101" s="22"/>
       <c r="F101" s="22"/>
@@ -4347,8 +4459,9 @@
       <c r="M101" s="22"/>
       <c r="N101" s="23"/>
       <c r="O101" s="23"/>
-    </row>
-    <row r="102" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P101" s="23"/>
+    </row>
+    <row r="102" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A102" s="22"/>
       <c r="E102" s="22"/>
       <c r="F102" s="22"/>
@@ -4360,8 +4473,9 @@
       <c r="M102" s="22"/>
       <c r="N102" s="23"/>
       <c r="O102" s="23"/>
-    </row>
-    <row r="103" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P102" s="23"/>
+    </row>
+    <row r="103" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A103" s="22"/>
       <c r="E103" s="22"/>
       <c r="F103" s="22"/>
@@ -4373,8 +4487,9 @@
       <c r="M103" s="22"/>
       <c r="N103" s="23"/>
       <c r="O103" s="23"/>
-    </row>
-    <row r="104" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P103" s="23"/>
+    </row>
+    <row r="104" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A104" s="22"/>
       <c r="E104" s="22"/>
       <c r="F104" s="22"/>
@@ -4386,8 +4501,9 @@
       <c r="M104" s="22"/>
       <c r="N104" s="23"/>
       <c r="O104" s="23"/>
-    </row>
-    <row r="105" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P104" s="23"/>
+    </row>
+    <row r="105" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A105" s="22"/>
       <c r="E105" s="22"/>
       <c r="F105" s="22"/>
@@ -4399,8 +4515,9 @@
       <c r="M105" s="22"/>
       <c r="N105" s="23"/>
       <c r="O105" s="23"/>
-    </row>
-    <row r="106" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P105" s="23"/>
+    </row>
+    <row r="106" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A106" s="22"/>
       <c r="E106" s="22"/>
       <c r="F106" s="22"/>
@@ -4412,8 +4529,9 @@
       <c r="M106" s="22"/>
       <c r="N106" s="23"/>
       <c r="O106" s="23"/>
-    </row>
-    <row r="107" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P106" s="23"/>
+    </row>
+    <row r="107" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A107" s="22"/>
       <c r="E107" s="22"/>
       <c r="F107" s="22"/>
@@ -4425,8 +4543,9 @@
       <c r="M107" s="22"/>
       <c r="N107" s="23"/>
       <c r="O107" s="23"/>
-    </row>
-    <row r="108" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P107" s="23"/>
+    </row>
+    <row r="108" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A108" s="22"/>
       <c r="E108" s="22"/>
       <c r="F108" s="22"/>
@@ -4438,8 +4557,9 @@
       <c r="M108" s="22"/>
       <c r="N108" s="23"/>
       <c r="O108" s="23"/>
-    </row>
-    <row r="109" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P108" s="23"/>
+    </row>
+    <row r="109" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A109" s="22"/>
       <c r="E109" s="22"/>
       <c r="F109" s="22"/>
@@ -4451,8 +4571,9 @@
       <c r="M109" s="22"/>
       <c r="N109" s="23"/>
       <c r="O109" s="23"/>
-    </row>
-    <row r="110" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P109" s="23"/>
+    </row>
+    <row r="110" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A110" s="22"/>
       <c r="E110" s="22"/>
       <c r="F110" s="22"/>
@@ -4464,8 +4585,9 @@
       <c r="M110" s="22"/>
       <c r="N110" s="23"/>
       <c r="O110" s="23"/>
-    </row>
-    <row r="111" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P110" s="23"/>
+    </row>
+    <row r="111" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A111" s="22"/>
       <c r="E111" s="22"/>
       <c r="F111" s="22"/>
@@ -4477,8 +4599,9 @@
       <c r="M111" s="22"/>
       <c r="N111" s="23"/>
       <c r="O111" s="23"/>
-    </row>
-    <row r="112" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P111" s="23"/>
+    </row>
+    <row r="112" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A112" s="22"/>
       <c r="E112" s="22"/>
       <c r="F112" s="22"/>
@@ -4490,8 +4613,9 @@
       <c r="M112" s="22"/>
       <c r="N112" s="23"/>
       <c r="O112" s="23"/>
-    </row>
-    <row r="113" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P112" s="23"/>
+    </row>
+    <row r="113" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A113" s="22"/>
       <c r="E113" s="22"/>
       <c r="F113" s="22"/>
@@ -4503,8 +4627,9 @@
       <c r="M113" s="22"/>
       <c r="N113" s="23"/>
       <c r="O113" s="23"/>
-    </row>
-    <row r="114" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P113" s="23"/>
+    </row>
+    <row r="114" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A114" s="22"/>
       <c r="E114" s="22"/>
       <c r="F114" s="22"/>
@@ -4516,8 +4641,9 @@
       <c r="M114" s="22"/>
       <c r="N114" s="23"/>
       <c r="O114" s="23"/>
-    </row>
-    <row r="115" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P114" s="23"/>
+    </row>
+    <row r="115" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A115" s="22"/>
       <c r="E115" s="22"/>
       <c r="F115" s="22"/>
@@ -4529,8 +4655,9 @@
       <c r="M115" s="22"/>
       <c r="N115" s="23"/>
       <c r="O115" s="23"/>
-    </row>
-    <row r="116" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P115" s="23"/>
+    </row>
+    <row r="116" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A116" s="22"/>
       <c r="E116" s="22"/>
       <c r="F116" s="22"/>
@@ -4542,8 +4669,9 @@
       <c r="M116" s="22"/>
       <c r="N116" s="23"/>
       <c r="O116" s="23"/>
-    </row>
-    <row r="117" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P116" s="23"/>
+    </row>
+    <row r="117" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A117" s="22"/>
       <c r="E117" s="22"/>
       <c r="F117" s="22"/>
@@ -4555,8 +4683,9 @@
       <c r="M117" s="22"/>
       <c r="N117" s="23"/>
       <c r="O117" s="23"/>
-    </row>
-    <row r="118" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P117" s="23"/>
+    </row>
+    <row r="118" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A118" s="22"/>
       <c r="E118" s="22"/>
       <c r="F118" s="22"/>
@@ -4568,8 +4697,9 @@
       <c r="M118" s="22"/>
       <c r="N118" s="23"/>
       <c r="O118" s="23"/>
-    </row>
-    <row r="119" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P118" s="23"/>
+    </row>
+    <row r="119" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A119" s="22"/>
       <c r="E119" s="22"/>
       <c r="F119" s="22"/>
@@ -4581,8 +4711,9 @@
       <c r="M119" s="22"/>
       <c r="N119" s="23"/>
       <c r="O119" s="23"/>
-    </row>
-    <row r="120" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P119" s="23"/>
+    </row>
+    <row r="120" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A120" s="22"/>
       <c r="E120" s="22"/>
       <c r="F120" s="22"/>
@@ -4594,8 +4725,9 @@
       <c r="M120" s="22"/>
       <c r="N120" s="23"/>
       <c r="O120" s="23"/>
-    </row>
-    <row r="121" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P120" s="23"/>
+    </row>
+    <row r="121" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A121" s="22"/>
       <c r="E121" s="22"/>
       <c r="F121" s="22"/>
@@ -4607,8 +4739,9 @@
       <c r="M121" s="22"/>
       <c r="N121" s="23"/>
       <c r="O121" s="23"/>
-    </row>
-    <row r="122" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P121" s="23"/>
+    </row>
+    <row r="122" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A122" s="22"/>
       <c r="E122" s="22"/>
       <c r="F122" s="22"/>
@@ -4620,8 +4753,9 @@
       <c r="M122" s="22"/>
       <c r="N122" s="23"/>
       <c r="O122" s="23"/>
-    </row>
-    <row r="123" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P122" s="23"/>
+    </row>
+    <row r="123" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A123" s="22"/>
       <c r="E123" s="22"/>
       <c r="F123" s="22"/>
@@ -4633,8 +4767,9 @@
       <c r="M123" s="22"/>
       <c r="N123" s="23"/>
       <c r="O123" s="23"/>
-    </row>
-    <row r="124" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P123" s="23"/>
+    </row>
+    <row r="124" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A124" s="22"/>
       <c r="E124" s="22"/>
       <c r="F124" s="22"/>
@@ -4646,8 +4781,9 @@
       <c r="M124" s="22"/>
       <c r="N124" s="23"/>
       <c r="O124" s="23"/>
-    </row>
-    <row r="125" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P124" s="23"/>
+    </row>
+    <row r="125" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A125" s="22"/>
       <c r="E125" s="22"/>
       <c r="F125" s="22"/>
@@ -4659,8 +4795,9 @@
       <c r="M125" s="22"/>
       <c r="N125" s="23"/>
       <c r="O125" s="23"/>
-    </row>
-    <row r="126" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P125" s="23"/>
+    </row>
+    <row r="126" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A126" s="22"/>
       <c r="E126" s="22"/>
       <c r="F126" s="22"/>
@@ -4672,8 +4809,9 @@
       <c r="M126" s="22"/>
       <c r="N126" s="23"/>
       <c r="O126" s="23"/>
-    </row>
-    <row r="127" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P126" s="23"/>
+    </row>
+    <row r="127" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A127" s="22"/>
       <c r="E127" s="22"/>
       <c r="F127" s="22"/>
@@ -4685,8 +4823,9 @@
       <c r="M127" s="22"/>
       <c r="N127" s="23"/>
       <c r="O127" s="23"/>
-    </row>
-    <row r="128" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P127" s="23"/>
+    </row>
+    <row r="128" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A128" s="22"/>
       <c r="E128" s="22"/>
       <c r="F128" s="22"/>
@@ -4698,8 +4837,9 @@
       <c r="M128" s="22"/>
       <c r="N128" s="23"/>
       <c r="O128" s="23"/>
-    </row>
-    <row r="129" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P128" s="23"/>
+    </row>
+    <row r="129" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A129" s="22"/>
       <c r="E129" s="22"/>
       <c r="F129" s="22"/>
@@ -4711,8 +4851,9 @@
       <c r="M129" s="22"/>
       <c r="N129" s="23"/>
       <c r="O129" s="23"/>
-    </row>
-    <row r="130" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P129" s="23"/>
+    </row>
+    <row r="130" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A130" s="22"/>
       <c r="E130" s="22"/>
       <c r="F130" s="22"/>
@@ -4724,8 +4865,9 @@
       <c r="M130" s="22"/>
       <c r="N130" s="23"/>
       <c r="O130" s="23"/>
-    </row>
-    <row r="131" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P130" s="23"/>
+    </row>
+    <row r="131" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A131" s="22"/>
       <c r="E131" s="22"/>
       <c r="F131" s="22"/>
@@ -4737,8 +4879,9 @@
       <c r="M131" s="22"/>
       <c r="N131" s="23"/>
       <c r="O131" s="23"/>
-    </row>
-    <row r="132" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P131" s="23"/>
+    </row>
+    <row r="132" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A132" s="22"/>
       <c r="E132" s="22"/>
       <c r="F132" s="22"/>
@@ -4750,8 +4893,9 @@
       <c r="M132" s="22"/>
       <c r="N132" s="23"/>
       <c r="O132" s="23"/>
-    </row>
-    <row r="133" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P132" s="23"/>
+    </row>
+    <row r="133" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A133" s="22"/>
       <c r="E133" s="22"/>
       <c r="F133" s="22"/>
@@ -4763,8 +4907,9 @@
       <c r="M133" s="22"/>
       <c r="N133" s="23"/>
       <c r="O133" s="23"/>
-    </row>
-    <row r="134" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P133" s="23"/>
+    </row>
+    <row r="134" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A134" s="22"/>
       <c r="E134" s="22"/>
       <c r="F134" s="22"/>
@@ -4776,8 +4921,9 @@
       <c r="M134" s="22"/>
       <c r="N134" s="23"/>
       <c r="O134" s="23"/>
-    </row>
-    <row r="135" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P134" s="23"/>
+    </row>
+    <row r="135" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A135" s="22"/>
       <c r="E135" s="22"/>
       <c r="F135" s="22"/>
@@ -4789,8 +4935,9 @@
       <c r="M135" s="22"/>
       <c r="N135" s="23"/>
       <c r="O135" s="23"/>
-    </row>
-    <row r="136" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P135" s="23"/>
+    </row>
+    <row r="136" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A136" s="22"/>
       <c r="E136" s="22"/>
       <c r="F136" s="22"/>
@@ -4802,8 +4949,9 @@
       <c r="M136" s="22"/>
       <c r="N136" s="23"/>
       <c r="O136" s="23"/>
-    </row>
-    <row r="137" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P136" s="23"/>
+    </row>
+    <row r="137" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A137" s="22"/>
       <c r="E137" s="22"/>
       <c r="F137" s="22"/>
@@ -4815,8 +4963,9 @@
       <c r="M137" s="22"/>
       <c r="N137" s="23"/>
       <c r="O137" s="23"/>
-    </row>
-    <row r="138" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P137" s="23"/>
+    </row>
+    <row r="138" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A138" s="22"/>
       <c r="E138" s="22"/>
       <c r="F138" s="22"/>
@@ -4828,8 +4977,9 @@
       <c r="M138" s="22"/>
       <c r="N138" s="23"/>
       <c r="O138" s="23"/>
-    </row>
-    <row r="139" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P138" s="23"/>
+    </row>
+    <row r="139" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A139" s="22"/>
       <c r="E139" s="22"/>
       <c r="F139" s="22"/>
@@ -4841,8 +4991,9 @@
       <c r="M139" s="22"/>
       <c r="N139" s="23"/>
       <c r="O139" s="23"/>
-    </row>
-    <row r="140" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P139" s="23"/>
+    </row>
+    <row r="140" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A140" s="22"/>
       <c r="E140" s="22"/>
       <c r="F140" s="22"/>
@@ -4854,8 +5005,9 @@
       <c r="M140" s="22"/>
       <c r="N140" s="23"/>
       <c r="O140" s="23"/>
-    </row>
-    <row r="141" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P140" s="23"/>
+    </row>
+    <row r="141" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A141" s="22"/>
       <c r="E141" s="22"/>
       <c r="F141" s="22"/>
@@ -4867,8 +5019,9 @@
       <c r="M141" s="22"/>
       <c r="N141" s="23"/>
       <c r="O141" s="23"/>
-    </row>
-    <row r="142" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P141" s="23"/>
+    </row>
+    <row r="142" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A142" s="22"/>
       <c r="E142" s="22"/>
       <c r="F142" s="22"/>
@@ -4880,8 +5033,9 @@
       <c r="M142" s="22"/>
       <c r="N142" s="23"/>
       <c r="O142" s="23"/>
-    </row>
-    <row r="143" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P142" s="23"/>
+    </row>
+    <row r="143" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A143" s="22"/>
       <c r="E143" s="22"/>
       <c r="F143" s="22"/>
@@ -4893,8 +5047,9 @@
       <c r="M143" s="22"/>
       <c r="N143" s="23"/>
       <c r="O143" s="23"/>
-    </row>
-    <row r="144" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P143" s="23"/>
+    </row>
+    <row r="144" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A144" s="22"/>
       <c r="E144" s="22"/>
       <c r="F144" s="22"/>
@@ -4906,8 +5061,9 @@
       <c r="M144" s="22"/>
       <c r="N144" s="23"/>
       <c r="O144" s="23"/>
-    </row>
-    <row r="145" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P144" s="23"/>
+    </row>
+    <row r="145" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A145" s="22"/>
       <c r="E145" s="22"/>
       <c r="F145" s="22"/>
@@ -4919,8 +5075,9 @@
       <c r="M145" s="22"/>
       <c r="N145" s="23"/>
       <c r="O145" s="23"/>
-    </row>
-    <row r="146" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P145" s="23"/>
+    </row>
+    <row r="146" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A146" s="22"/>
       <c r="E146" s="22"/>
       <c r="F146" s="22"/>
@@ -4932,8 +5089,9 @@
       <c r="M146" s="22"/>
       <c r="N146" s="23"/>
       <c r="O146" s="23"/>
-    </row>
-    <row r="147" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P146" s="23"/>
+    </row>
+    <row r="147" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A147" s="22"/>
       <c r="E147" s="22"/>
       <c r="F147" s="22"/>
@@ -4945,8 +5103,9 @@
       <c r="M147" s="22"/>
       <c r="N147" s="23"/>
       <c r="O147" s="23"/>
-    </row>
-    <row r="148" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P147" s="23"/>
+    </row>
+    <row r="148" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A148" s="22"/>
       <c r="E148" s="22"/>
       <c r="F148" s="22"/>
@@ -4958,8 +5117,9 @@
       <c r="M148" s="22"/>
       <c r="N148" s="23"/>
       <c r="O148" s="23"/>
-    </row>
-    <row r="149" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P148" s="23"/>
+    </row>
+    <row r="149" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A149" s="22"/>
       <c r="E149" s="22"/>
       <c r="F149" s="22"/>
@@ -4971,8 +5131,9 @@
       <c r="M149" s="22"/>
       <c r="N149" s="23"/>
       <c r="O149" s="23"/>
-    </row>
-    <row r="150" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P149" s="23"/>
+    </row>
+    <row r="150" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A150" s="22"/>
       <c r="E150" s="22"/>
       <c r="F150" s="22"/>
@@ -4984,8 +5145,9 @@
       <c r="M150" s="22"/>
       <c r="N150" s="23"/>
       <c r="O150" s="23"/>
-    </row>
-    <row r="151" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P150" s="23"/>
+    </row>
+    <row r="151" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A151" s="22"/>
       <c r="E151" s="22"/>
       <c r="F151" s="22"/>
@@ -4997,8 +5159,9 @@
       <c r="M151" s="22"/>
       <c r="N151" s="23"/>
       <c r="O151" s="23"/>
-    </row>
-    <row r="152" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P151" s="23"/>
+    </row>
+    <row r="152" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A152" s="22"/>
       <c r="E152" s="22"/>
       <c r="F152" s="22"/>
@@ -5010,8 +5173,9 @@
       <c r="M152" s="22"/>
       <c r="N152" s="23"/>
       <c r="O152" s="23"/>
-    </row>
-    <row r="153" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P152" s="23"/>
+    </row>
+    <row r="153" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A153" s="22"/>
       <c r="E153" s="22"/>
       <c r="F153" s="22"/>
@@ -5023,8 +5187,9 @@
       <c r="M153" s="22"/>
       <c r="N153" s="23"/>
       <c r="O153" s="23"/>
-    </row>
-    <row r="154" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P153" s="23"/>
+    </row>
+    <row r="154" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A154" s="22"/>
       <c r="E154" s="22"/>
       <c r="F154" s="22"/>
@@ -5036,8 +5201,9 @@
       <c r="M154" s="22"/>
       <c r="N154" s="23"/>
       <c r="O154" s="23"/>
-    </row>
-    <row r="155" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P154" s="23"/>
+    </row>
+    <row r="155" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A155" s="22"/>
       <c r="E155" s="22"/>
       <c r="F155" s="22"/>
@@ -5049,8 +5215,9 @@
       <c r="M155" s="22"/>
       <c r="N155" s="23"/>
       <c r="O155" s="23"/>
-    </row>
-    <row r="156" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P155" s="23"/>
+    </row>
+    <row r="156" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A156" s="22"/>
       <c r="E156" s="22"/>
       <c r="F156" s="22"/>
@@ -5062,8 +5229,9 @@
       <c r="M156" s="22"/>
       <c r="N156" s="23"/>
       <c r="O156" s="23"/>
-    </row>
-    <row r="157" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P156" s="23"/>
+    </row>
+    <row r="157" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A157" s="22"/>
       <c r="E157" s="22"/>
       <c r="F157" s="22"/>
@@ -5075,8 +5243,9 @@
       <c r="M157" s="22"/>
       <c r="N157" s="23"/>
       <c r="O157" s="23"/>
-    </row>
-    <row r="158" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P157" s="23"/>
+    </row>
+    <row r="158" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A158" s="22"/>
       <c r="E158" s="22"/>
       <c r="F158" s="22"/>
@@ -5088,8 +5257,9 @@
       <c r="M158" s="22"/>
       <c r="N158" s="23"/>
       <c r="O158" s="23"/>
-    </row>
-    <row r="159" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P158" s="23"/>
+    </row>
+    <row r="159" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A159" s="22"/>
       <c r="E159" s="22"/>
       <c r="F159" s="22"/>
@@ -5101,8 +5271,9 @@
       <c r="M159" s="22"/>
       <c r="N159" s="23"/>
       <c r="O159" s="23"/>
-    </row>
-    <row r="160" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P159" s="23"/>
+    </row>
+    <row r="160" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A160" s="22"/>
       <c r="E160" s="22"/>
       <c r="F160" s="22"/>
@@ -5114,8 +5285,9 @@
       <c r="M160" s="22"/>
       <c r="N160" s="23"/>
       <c r="O160" s="23"/>
-    </row>
-    <row r="161" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P160" s="23"/>
+    </row>
+    <row r="161" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A161" s="22"/>
       <c r="E161" s="22"/>
       <c r="F161" s="22"/>
@@ -5127,8 +5299,9 @@
       <c r="M161" s="22"/>
       <c r="N161" s="23"/>
       <c r="O161" s="23"/>
-    </row>
-    <row r="162" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P161" s="23"/>
+    </row>
+    <row r="162" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A162" s="22"/>
       <c r="E162" s="22"/>
       <c r="F162" s="22"/>
@@ -5140,8 +5313,9 @@
       <c r="M162" s="22"/>
       <c r="N162" s="23"/>
       <c r="O162" s="23"/>
-    </row>
-    <row r="163" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P162" s="23"/>
+    </row>
+    <row r="163" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A163" s="22"/>
       <c r="E163" s="22"/>
       <c r="F163" s="22"/>
@@ -5153,8 +5327,9 @@
       <c r="M163" s="22"/>
       <c r="N163" s="23"/>
       <c r="O163" s="23"/>
-    </row>
-    <row r="164" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P163" s="23"/>
+    </row>
+    <row r="164" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A164" s="22"/>
       <c r="E164" s="22"/>
       <c r="F164" s="22"/>
@@ -5166,8 +5341,9 @@
       <c r="M164" s="22"/>
       <c r="N164" s="23"/>
       <c r="O164" s="23"/>
-    </row>
-    <row r="165" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P164" s="23"/>
+    </row>
+    <row r="165" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A165" s="22"/>
       <c r="E165" s="22"/>
       <c r="F165" s="22"/>
@@ -5179,8 +5355,9 @@
       <c r="M165" s="22"/>
       <c r="N165" s="23"/>
       <c r="O165" s="23"/>
-    </row>
-    <row r="166" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P165" s="23"/>
+    </row>
+    <row r="166" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A166" s="22"/>
       <c r="E166" s="22"/>
       <c r="F166" s="22"/>
@@ -5192,8 +5369,9 @@
       <c r="M166" s="22"/>
       <c r="N166" s="23"/>
       <c r="O166" s="23"/>
-    </row>
-    <row r="167" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P166" s="23"/>
+    </row>
+    <row r="167" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A167" s="22"/>
       <c r="E167" s="22"/>
       <c r="F167" s="22"/>
@@ -5205,8 +5383,9 @@
       <c r="M167" s="22"/>
       <c r="N167" s="23"/>
       <c r="O167" s="23"/>
-    </row>
-    <row r="168" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P167" s="23"/>
+    </row>
+    <row r="168" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A168" s="22"/>
       <c r="E168" s="22"/>
       <c r="F168" s="22"/>
@@ -5218,8 +5397,9 @@
       <c r="M168" s="22"/>
       <c r="N168" s="23"/>
       <c r="O168" s="23"/>
-    </row>
-    <row r="169" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P168" s="23"/>
+    </row>
+    <row r="169" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A169" s="22"/>
       <c r="E169" s="22"/>
       <c r="F169" s="22"/>
@@ -5231,8 +5411,9 @@
       <c r="M169" s="22"/>
       <c r="N169" s="23"/>
       <c r="O169" s="23"/>
-    </row>
-    <row r="170" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P169" s="23"/>
+    </row>
+    <row r="170" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A170" s="22"/>
       <c r="E170" s="22"/>
       <c r="F170" s="22"/>
@@ -5244,8 +5425,9 @@
       <c r="M170" s="22"/>
       <c r="N170" s="23"/>
       <c r="O170" s="23"/>
-    </row>
-    <row r="171" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P170" s="23"/>
+    </row>
+    <row r="171" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A171" s="22"/>
       <c r="E171" s="22"/>
       <c r="F171" s="22"/>
@@ -5257,8 +5439,9 @@
       <c r="M171" s="22"/>
       <c r="N171" s="23"/>
       <c r="O171" s="23"/>
-    </row>
-    <row r="172" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P171" s="23"/>
+    </row>
+    <row r="172" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A172" s="22"/>
       <c r="E172" s="22"/>
       <c r="F172" s="22"/>
@@ -5270,8 +5453,9 @@
       <c r="M172" s="22"/>
       <c r="N172" s="23"/>
       <c r="O172" s="23"/>
-    </row>
-    <row r="173" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P172" s="23"/>
+    </row>
+    <row r="173" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A173" s="22"/>
       <c r="E173" s="22"/>
       <c r="F173" s="22"/>
@@ -5283,8 +5467,9 @@
       <c r="M173" s="22"/>
       <c r="N173" s="23"/>
       <c r="O173" s="23"/>
-    </row>
-    <row r="174" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P173" s="23"/>
+    </row>
+    <row r="174" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A174" s="22"/>
       <c r="E174" s="22"/>
       <c r="F174" s="22"/>
@@ -5296,8 +5481,9 @@
       <c r="M174" s="22"/>
       <c r="N174" s="23"/>
       <c r="O174" s="23"/>
-    </row>
-    <row r="175" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P174" s="23"/>
+    </row>
+    <row r="175" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A175" s="22"/>
       <c r="E175" s="22"/>
       <c r="F175" s="22"/>
@@ -5309,8 +5495,9 @@
       <c r="M175" s="22"/>
       <c r="N175" s="23"/>
       <c r="O175" s="23"/>
-    </row>
-    <row r="176" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P175" s="23"/>
+    </row>
+    <row r="176" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A176" s="22"/>
       <c r="E176" s="22"/>
       <c r="F176" s="22"/>
@@ -5322,8 +5509,9 @@
       <c r="M176" s="22"/>
       <c r="N176" s="23"/>
       <c r="O176" s="23"/>
-    </row>
-    <row r="177" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P176" s="23"/>
+    </row>
+    <row r="177" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A177" s="22"/>
       <c r="E177" s="22"/>
       <c r="F177" s="22"/>
@@ -5335,8 +5523,9 @@
       <c r="M177" s="22"/>
       <c r="N177" s="23"/>
       <c r="O177" s="23"/>
-    </row>
-    <row r="178" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P177" s="23"/>
+    </row>
+    <row r="178" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A178" s="22"/>
       <c r="E178" s="22"/>
       <c r="F178" s="22"/>
@@ -5348,8 +5537,9 @@
       <c r="M178" s="22"/>
       <c r="N178" s="23"/>
       <c r="O178" s="23"/>
-    </row>
-    <row r="179" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P178" s="23"/>
+    </row>
+    <row r="179" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A179" s="22"/>
       <c r="E179" s="22"/>
       <c r="F179" s="22"/>
@@ -5361,8 +5551,9 @@
       <c r="M179" s="22"/>
       <c r="N179" s="23"/>
       <c r="O179" s="23"/>
-    </row>
-    <row r="180" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P179" s="23"/>
+    </row>
+    <row r="180" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A180" s="22"/>
       <c r="E180" s="22"/>
       <c r="F180" s="22"/>
@@ -5374,8 +5565,9 @@
       <c r="M180" s="22"/>
       <c r="N180" s="23"/>
       <c r="O180" s="23"/>
-    </row>
-    <row r="181" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P180" s="23"/>
+    </row>
+    <row r="181" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A181" s="22"/>
       <c r="E181" s="22"/>
       <c r="F181" s="22"/>
@@ -5387,8 +5579,9 @@
       <c r="M181" s="22"/>
       <c r="N181" s="23"/>
       <c r="O181" s="23"/>
-    </row>
-    <row r="182" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P181" s="23"/>
+    </row>
+    <row r="182" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A182" s="22"/>
       <c r="E182" s="22"/>
       <c r="F182" s="22"/>
@@ -5400,8 +5593,9 @@
       <c r="M182" s="22"/>
       <c r="N182" s="23"/>
       <c r="O182" s="23"/>
-    </row>
-    <row r="183" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P182" s="23"/>
+    </row>
+    <row r="183" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A183" s="22"/>
       <c r="E183" s="22"/>
       <c r="F183" s="22"/>
@@ -5413,8 +5607,9 @@
       <c r="M183" s="22"/>
       <c r="N183" s="23"/>
       <c r="O183" s="23"/>
-    </row>
-    <row r="184" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P183" s="23"/>
+    </row>
+    <row r="184" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A184" s="22"/>
       <c r="E184" s="22"/>
       <c r="F184" s="22"/>
@@ -5426,8 +5621,9 @@
       <c r="M184" s="22"/>
       <c r="N184" s="23"/>
       <c r="O184" s="23"/>
-    </row>
-    <row r="185" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P184" s="23"/>
+    </row>
+    <row r="185" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A185" s="22"/>
       <c r="E185" s="22"/>
       <c r="F185" s="22"/>
@@ -5439,8 +5635,9 @@
       <c r="M185" s="22"/>
       <c r="N185" s="23"/>
       <c r="O185" s="23"/>
-    </row>
-    <row r="186" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P185" s="23"/>
+    </row>
+    <row r="186" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A186" s="22"/>
       <c r="E186" s="22"/>
       <c r="F186" s="22"/>
@@ -5452,8 +5649,9 @@
       <c r="M186" s="22"/>
       <c r="N186" s="23"/>
       <c r="O186" s="23"/>
-    </row>
-    <row r="187" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P186" s="23"/>
+    </row>
+    <row r="187" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A187" s="22"/>
       <c r="E187" s="22"/>
       <c r="F187" s="22"/>
@@ -5465,8 +5663,9 @@
       <c r="M187" s="22"/>
       <c r="N187" s="23"/>
       <c r="O187" s="23"/>
-    </row>
-    <row r="188" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P187" s="23"/>
+    </row>
+    <row r="188" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A188" s="22"/>
       <c r="E188" s="22"/>
       <c r="F188" s="22"/>
@@ -5478,8 +5677,9 @@
       <c r="M188" s="22"/>
       <c r="N188" s="23"/>
       <c r="O188" s="23"/>
-    </row>
-    <row r="189" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P188" s="23"/>
+    </row>
+    <row r="189" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A189" s="22"/>
       <c r="E189" s="22"/>
       <c r="F189" s="22"/>
@@ -5491,8 +5691,9 @@
       <c r="M189" s="22"/>
       <c r="N189" s="23"/>
       <c r="O189" s="23"/>
-    </row>
-    <row r="190" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P189" s="23"/>
+    </row>
+    <row r="190" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A190" s="22"/>
       <c r="E190" s="22"/>
       <c r="F190" s="22"/>
@@ -5504,8 +5705,9 @@
       <c r="M190" s="22"/>
       <c r="N190" s="23"/>
       <c r="O190" s="23"/>
-    </row>
-    <row r="191" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P190" s="23"/>
+    </row>
+    <row r="191" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A191" s="22"/>
       <c r="E191" s="22"/>
       <c r="F191" s="22"/>
@@ -5517,8 +5719,9 @@
       <c r="M191" s="22"/>
       <c r="N191" s="23"/>
       <c r="O191" s="23"/>
-    </row>
-    <row r="192" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P191" s="23"/>
+    </row>
+    <row r="192" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A192" s="22"/>
       <c r="E192" s="22"/>
       <c r="F192" s="22"/>
@@ -5530,8 +5733,9 @@
       <c r="M192" s="22"/>
       <c r="N192" s="23"/>
       <c r="O192" s="23"/>
-    </row>
-    <row r="193" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P192" s="23"/>
+    </row>
+    <row r="193" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A193" s="22"/>
       <c r="E193" s="22"/>
       <c r="F193" s="22"/>
@@ -5543,8 +5747,9 @@
       <c r="M193" s="22"/>
       <c r="N193" s="23"/>
       <c r="O193" s="23"/>
-    </row>
-    <row r="194" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P193" s="23"/>
+    </row>
+    <row r="194" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A194" s="22"/>
       <c r="E194" s="22"/>
       <c r="F194" s="22"/>
@@ -5556,8 +5761,9 @@
       <c r="M194" s="22"/>
       <c r="N194" s="23"/>
       <c r="O194" s="23"/>
-    </row>
-    <row r="195" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P194" s="23"/>
+    </row>
+    <row r="195" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A195" s="22"/>
       <c r="E195" s="22"/>
       <c r="F195" s="22"/>
@@ -5569,8 +5775,9 @@
       <c r="M195" s="22"/>
       <c r="N195" s="23"/>
       <c r="O195" s="23"/>
-    </row>
-    <row r="196" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P195" s="23"/>
+    </row>
+    <row r="196" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A196" s="22"/>
       <c r="E196" s="22"/>
       <c r="F196" s="22"/>
@@ -5582,8 +5789,9 @@
       <c r="M196" s="22"/>
       <c r="N196" s="23"/>
       <c r="O196" s="23"/>
-    </row>
-    <row r="197" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P196" s="23"/>
+    </row>
+    <row r="197" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A197" s="22"/>
       <c r="E197" s="22"/>
       <c r="F197" s="22"/>
@@ -5595,8 +5803,9 @@
       <c r="M197" s="22"/>
       <c r="N197" s="23"/>
       <c r="O197" s="23"/>
-    </row>
-    <row r="198" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P197" s="23"/>
+    </row>
+    <row r="198" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A198" s="22"/>
       <c r="E198" s="22"/>
       <c r="F198" s="22"/>
@@ -5608,8 +5817,9 @@
       <c r="M198" s="22"/>
       <c r="N198" s="23"/>
       <c r="O198" s="23"/>
-    </row>
-    <row r="199" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P198" s="23"/>
+    </row>
+    <row r="199" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A199" s="22"/>
       <c r="E199" s="22"/>
       <c r="F199" s="22"/>
@@ -5621,8 +5831,9 @@
       <c r="M199" s="22"/>
       <c r="N199" s="23"/>
       <c r="O199" s="23"/>
-    </row>
-    <row r="200" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P199" s="23"/>
+    </row>
+    <row r="200" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A200" s="22"/>
       <c r="E200" s="22"/>
       <c r="F200" s="22"/>
@@ -5634,8 +5845,9 @@
       <c r="M200" s="22"/>
       <c r="N200" s="23"/>
       <c r="O200" s="23"/>
-    </row>
-    <row r="201" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P200" s="23"/>
+    </row>
+    <row r="201" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A201" s="22"/>
       <c r="E201" s="22"/>
       <c r="F201" s="22"/>
@@ -5647,8 +5859,9 @@
       <c r="M201" s="22"/>
       <c r="N201" s="23"/>
       <c r="O201" s="23"/>
-    </row>
-    <row r="202" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P201" s="23"/>
+    </row>
+    <row r="202" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A202" s="22"/>
       <c r="E202" s="22"/>
       <c r="F202" s="22"/>
@@ -5660,8 +5873,9 @@
       <c r="M202" s="22"/>
       <c r="N202" s="23"/>
       <c r="O202" s="23"/>
-    </row>
-    <row r="203" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P202" s="23"/>
+    </row>
+    <row r="203" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A203" s="22"/>
       <c r="E203" s="22"/>
       <c r="F203" s="22"/>
@@ -5673,8 +5887,9 @@
       <c r="M203" s="22"/>
       <c r="N203" s="23"/>
       <c r="O203" s="23"/>
-    </row>
-    <row r="204" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P203" s="23"/>
+    </row>
+    <row r="204" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A204" s="22"/>
       <c r="E204" s="22"/>
       <c r="F204" s="22"/>
@@ -5686,8 +5901,9 @@
       <c r="M204" s="22"/>
       <c r="N204" s="23"/>
       <c r="O204" s="23"/>
-    </row>
-    <row r="205" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P204" s="23"/>
+    </row>
+    <row r="205" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A205" s="22"/>
       <c r="E205" s="22"/>
       <c r="F205" s="22"/>
@@ -5699,8 +5915,9 @@
       <c r="M205" s="22"/>
       <c r="N205" s="23"/>
       <c r="O205" s="23"/>
-    </row>
-    <row r="206" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P205" s="23"/>
+    </row>
+    <row r="206" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A206" s="22"/>
       <c r="E206" s="22"/>
       <c r="F206" s="22"/>
@@ -5712,8 +5929,9 @@
       <c r="M206" s="22"/>
       <c r="N206" s="23"/>
       <c r="O206" s="23"/>
-    </row>
-    <row r="207" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P206" s="23"/>
+    </row>
+    <row r="207" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A207" s="22"/>
       <c r="E207" s="22"/>
       <c r="F207" s="22"/>
@@ -5725,8 +5943,9 @@
       <c r="M207" s="22"/>
       <c r="N207" s="23"/>
       <c r="O207" s="23"/>
-    </row>
-    <row r="208" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P207" s="23"/>
+    </row>
+    <row r="208" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A208" s="22"/>
       <c r="E208" s="22"/>
       <c r="F208" s="22"/>
@@ -5738,8 +5957,9 @@
       <c r="M208" s="22"/>
       <c r="N208" s="23"/>
       <c r="O208" s="23"/>
-    </row>
-    <row r="209" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P208" s="23"/>
+    </row>
+    <row r="209" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A209" s="22"/>
       <c r="E209" s="22"/>
       <c r="F209" s="22"/>
@@ -5751,8 +5971,9 @@
       <c r="M209" s="22"/>
       <c r="N209" s="23"/>
       <c r="O209" s="23"/>
-    </row>
-    <row r="210" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P209" s="23"/>
+    </row>
+    <row r="210" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A210" s="22"/>
       <c r="E210" s="22"/>
       <c r="F210" s="22"/>
@@ -5764,8 +5985,9 @@
       <c r="M210" s="22"/>
       <c r="N210" s="23"/>
       <c r="O210" s="23"/>
-    </row>
-    <row r="211" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P210" s="23"/>
+    </row>
+    <row r="211" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A211" s="22"/>
       <c r="E211" s="22"/>
       <c r="F211" s="22"/>
@@ -5777,8 +5999,9 @@
       <c r="M211" s="22"/>
       <c r="N211" s="23"/>
       <c r="O211" s="23"/>
-    </row>
-    <row r="212" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P211" s="23"/>
+    </row>
+    <row r="212" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A212" s="22"/>
       <c r="E212" s="22"/>
       <c r="F212" s="22"/>
@@ -5790,8 +6013,9 @@
       <c r="M212" s="22"/>
       <c r="N212" s="23"/>
       <c r="O212" s="23"/>
-    </row>
-    <row r="213" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P212" s="23"/>
+    </row>
+    <row r="213" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A213" s="22"/>
       <c r="E213" s="22"/>
       <c r="F213" s="22"/>
@@ -5803,8 +6027,9 @@
       <c r="M213" s="22"/>
       <c r="N213" s="23"/>
       <c r="O213" s="23"/>
-    </row>
-    <row r="214" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P213" s="23"/>
+    </row>
+    <row r="214" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A214" s="22"/>
       <c r="E214" s="22"/>
       <c r="F214" s="22"/>
@@ -5816,8 +6041,9 @@
       <c r="M214" s="22"/>
       <c r="N214" s="23"/>
       <c r="O214" s="23"/>
-    </row>
-    <row r="215" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P214" s="23"/>
+    </row>
+    <row r="215" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A215" s="22"/>
       <c r="E215" s="22"/>
       <c r="F215" s="22"/>
@@ -5829,8 +6055,9 @@
       <c r="M215" s="22"/>
       <c r="N215" s="23"/>
       <c r="O215" s="23"/>
-    </row>
-    <row r="216" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P215" s="23"/>
+    </row>
+    <row r="216" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A216" s="22"/>
       <c r="E216" s="22"/>
       <c r="F216" s="22"/>
@@ -5842,8 +6069,9 @@
       <c r="M216" s="22"/>
       <c r="N216" s="23"/>
       <c r="O216" s="23"/>
-    </row>
-    <row r="217" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P216" s="23"/>
+    </row>
+    <row r="217" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A217" s="22"/>
       <c r="E217" s="22"/>
       <c r="F217" s="22"/>
@@ -5855,8 +6083,9 @@
       <c r="M217" s="22"/>
       <c r="N217" s="23"/>
       <c r="O217" s="23"/>
-    </row>
-    <row r="218" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P217" s="23"/>
+    </row>
+    <row r="218" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A218" s="22"/>
       <c r="E218" s="22"/>
       <c r="F218" s="22"/>
@@ -5868,8 +6097,9 @@
       <c r="M218" s="22"/>
       <c r="N218" s="23"/>
       <c r="O218" s="23"/>
-    </row>
-    <row r="219" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P218" s="23"/>
+    </row>
+    <row r="219" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A219" s="22"/>
       <c r="E219" s="22"/>
       <c r="F219" s="22"/>
@@ -5881,8 +6111,9 @@
       <c r="M219" s="22"/>
       <c r="N219" s="23"/>
       <c r="O219" s="23"/>
-    </row>
-    <row r="220" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P219" s="23"/>
+    </row>
+    <row r="220" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A220" s="22"/>
       <c r="E220" s="22"/>
       <c r="F220" s="22"/>
@@ -5894,8 +6125,9 @@
       <c r="M220" s="22"/>
       <c r="N220" s="23"/>
       <c r="O220" s="23"/>
-    </row>
-    <row r="221" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P220" s="23"/>
+    </row>
+    <row r="221" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A221" s="22"/>
       <c r="E221" s="22"/>
       <c r="F221" s="22"/>
@@ -5907,8 +6139,9 @@
       <c r="M221" s="22"/>
       <c r="N221" s="23"/>
       <c r="O221" s="23"/>
-    </row>
-    <row r="222" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P221" s="23"/>
+    </row>
+    <row r="222" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A222" s="22"/>
       <c r="E222" s="22"/>
       <c r="F222" s="22"/>
@@ -5920,8 +6153,9 @@
       <c r="M222" s="22"/>
       <c r="N222" s="23"/>
       <c r="O222" s="23"/>
-    </row>
-    <row r="223" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P222" s="23"/>
+    </row>
+    <row r="223" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A223" s="22"/>
       <c r="E223" s="22"/>
       <c r="F223" s="22"/>
@@ -5933,8 +6167,9 @@
       <c r="M223" s="22"/>
       <c r="N223" s="23"/>
       <c r="O223" s="23"/>
-    </row>
-    <row r="224" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P223" s="23"/>
+    </row>
+    <row r="224" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A224" s="22"/>
       <c r="E224" s="22"/>
       <c r="F224" s="22"/>
@@ -5946,8 +6181,9 @@
       <c r="M224" s="22"/>
       <c r="N224" s="23"/>
       <c r="O224" s="23"/>
-    </row>
-    <row r="225" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P224" s="23"/>
+    </row>
+    <row r="225" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A225" s="22"/>
       <c r="E225" s="22"/>
       <c r="F225" s="22"/>
@@ -5959,8 +6195,9 @@
       <c r="M225" s="22"/>
       <c r="N225" s="23"/>
       <c r="O225" s="23"/>
-    </row>
-    <row r="226" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P225" s="23"/>
+    </row>
+    <row r="226" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A226" s="22"/>
       <c r="E226" s="22"/>
       <c r="F226" s="22"/>
@@ -5972,8 +6209,9 @@
       <c r="M226" s="22"/>
       <c r="N226" s="23"/>
       <c r="O226" s="23"/>
-    </row>
-    <row r="227" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P226" s="23"/>
+    </row>
+    <row r="227" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A227" s="22"/>
       <c r="E227" s="22"/>
       <c r="F227" s="22"/>
@@ -5985,8 +6223,9 @@
       <c r="M227" s="22"/>
       <c r="N227" s="23"/>
       <c r="O227" s="23"/>
-    </row>
-    <row r="228" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P227" s="23"/>
+    </row>
+    <row r="228" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A228" s="22"/>
       <c r="E228" s="22"/>
       <c r="F228" s="22"/>
@@ -5998,8 +6237,9 @@
       <c r="M228" s="22"/>
       <c r="N228" s="23"/>
       <c r="O228" s="23"/>
-    </row>
-    <row r="229" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P228" s="23"/>
+    </row>
+    <row r="229" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A229" s="22"/>
       <c r="E229" s="22"/>
       <c r="F229" s="22"/>
@@ -6011,8 +6251,9 @@
       <c r="M229" s="22"/>
       <c r="N229" s="23"/>
       <c r="O229" s="23"/>
-    </row>
-    <row r="230" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P229" s="23"/>
+    </row>
+    <row r="230" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A230" s="22"/>
       <c r="E230" s="22"/>
       <c r="F230" s="22"/>
@@ -6024,8 +6265,9 @@
       <c r="M230" s="22"/>
       <c r="N230" s="23"/>
       <c r="O230" s="23"/>
-    </row>
-    <row r="231" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P230" s="23"/>
+    </row>
+    <row r="231" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A231" s="22"/>
       <c r="E231" s="22"/>
       <c r="F231" s="22"/>
@@ -6037,8 +6279,9 @@
       <c r="M231" s="22"/>
       <c r="N231" s="23"/>
       <c r="O231" s="23"/>
-    </row>
-    <row r="232" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P231" s="23"/>
+    </row>
+    <row r="232" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A232" s="22"/>
       <c r="E232" s="22"/>
       <c r="F232" s="22"/>
@@ -6050,8 +6293,9 @@
       <c r="M232" s="22"/>
       <c r="N232" s="23"/>
       <c r="O232" s="23"/>
-    </row>
-    <row r="233" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P232" s="23"/>
+    </row>
+    <row r="233" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A233" s="22"/>
       <c r="E233" s="22"/>
       <c r="F233" s="22"/>
@@ -6063,8 +6307,9 @@
       <c r="M233" s="22"/>
       <c r="N233" s="23"/>
       <c r="O233" s="23"/>
-    </row>
-    <row r="234" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P233" s="23"/>
+    </row>
+    <row r="234" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A234" s="22"/>
       <c r="E234" s="22"/>
       <c r="F234" s="22"/>
@@ -6076,8 +6321,9 @@
       <c r="M234" s="22"/>
       <c r="N234" s="23"/>
       <c r="O234" s="23"/>
-    </row>
-    <row r="235" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P234" s="23"/>
+    </row>
+    <row r="235" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A235" s="22"/>
       <c r="E235" s="22"/>
       <c r="F235" s="22"/>
@@ -6089,8 +6335,9 @@
       <c r="M235" s="22"/>
       <c r="N235" s="23"/>
       <c r="O235" s="23"/>
-    </row>
-    <row r="236" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P235" s="23"/>
+    </row>
+    <row r="236" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A236" s="22"/>
       <c r="E236" s="22"/>
       <c r="F236" s="22"/>
@@ -6102,8 +6349,9 @@
       <c r="M236" s="22"/>
       <c r="N236" s="23"/>
       <c r="O236" s="23"/>
-    </row>
-    <row r="237" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P236" s="23"/>
+    </row>
+    <row r="237" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A237" s="22"/>
       <c r="E237" s="22"/>
       <c r="F237" s="22"/>
@@ -6115,8 +6363,9 @@
       <c r="M237" s="22"/>
       <c r="N237" s="23"/>
       <c r="O237" s="23"/>
-    </row>
-    <row r="238" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P237" s="23"/>
+    </row>
+    <row r="238" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A238" s="22"/>
       <c r="E238" s="22"/>
       <c r="F238" s="22"/>
@@ -6128,8 +6377,9 @@
       <c r="M238" s="22"/>
       <c r="N238" s="23"/>
       <c r="O238" s="23"/>
-    </row>
-    <row r="239" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P238" s="23"/>
+    </row>
+    <row r="239" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A239" s="22"/>
       <c r="E239" s="22"/>
       <c r="F239" s="22"/>
@@ -6141,8 +6391,9 @@
       <c r="M239" s="22"/>
       <c r="N239" s="23"/>
       <c r="O239" s="23"/>
-    </row>
-    <row r="240" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P239" s="23"/>
+    </row>
+    <row r="240" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A240" s="22"/>
       <c r="E240" s="22"/>
       <c r="F240" s="22"/>
@@ -6154,8 +6405,9 @@
       <c r="M240" s="22"/>
       <c r="N240" s="23"/>
       <c r="O240" s="23"/>
-    </row>
-    <row r="241" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P240" s="23"/>
+    </row>
+    <row r="241" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A241" s="22"/>
       <c r="E241" s="22"/>
       <c r="F241" s="22"/>
@@ -6167,8 +6419,9 @@
       <c r="M241" s="22"/>
       <c r="N241" s="23"/>
       <c r="O241" s="23"/>
-    </row>
-    <row r="242" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P241" s="23"/>
+    </row>
+    <row r="242" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A242" s="22"/>
       <c r="E242" s="22"/>
       <c r="F242" s="22"/>
@@ -6180,8 +6433,9 @@
       <c r="M242" s="22"/>
       <c r="N242" s="23"/>
       <c r="O242" s="23"/>
-    </row>
-    <row r="243" spans="1:15" s="13" customFormat="1" ht="50" customHeight="1">
+      <c r="P242" s="23"/>
+    </row>
+    <row r="243" spans="1:16" s="13" customFormat="1" ht="50" customHeight="1">
       <c r="A243" s="22"/>
       <c r="E243" s="22"/>
       <c r="F243" s="22"/>
@@ -6193,10 +6447,11 @@
       <c r="M243" s="22"/>
       <c r="N243" s="23"/>
       <c r="O243" s="23"/>
+      <c r="P243" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B1:P1"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75138888888888899" bottom="0.75138888888888899" header="0.297916666666667" footer="0.297916666666667"/>
